--- a/Take Home/Tables/1_MSPE All Criteria_a110.5_T50.xlsx
+++ b/Take Home/Tables/1_MSPE All Criteria_a110.5_T50.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.3436</v>
+        <v>2.3175</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2067</v>
+        <v>2.3039</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2886</v>
+        <v>2.3483</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.4002</v>
+        <v>2.3271</v>
       </c>
       <c r="C3" t="n">
-        <v>2.2547</v>
+        <v>2.3331</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3158</v>
+        <v>2.3754</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.1921</v>
+        <v>2.1615</v>
       </c>
       <c r="C4" t="n">
-        <v>2.1145</v>
+        <v>2.1744</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2897</v>
+        <v>2.2278</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.2246</v>
+        <v>2.1964</v>
       </c>
       <c r="C5" t="n">
-        <v>2.1367</v>
+        <v>2.1822</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2869</v>
+        <v>2.2268</v>
       </c>
     </row>
   </sheetData>
